--- a/Sales_Analytics_Dashboard_Data.xlsx
+++ b/Sales_Analytics_Dashboard_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cassius Colaco\Desktop\Hackathon\Hackathon  working prototype code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E27FE0-31AF-43F8-BC09-F73F9927CB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA180389-A928-4FC0-8002-7B5026FC7DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,15 +21,32 @@
     <sheet name="Pivot &amp; Charts" sheetId="6" r:id="rId6"/>
     <sheet name="Dashboard" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="Slicer_Month">#N/A</definedName>
+    <definedName name="Slicer_Product">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="4" r:id="rId9"/>
+    <pivotCache cacheId="8" r:id="rId10"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId11"/>
+        <x14:slicerCache r:id="rId12"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="57">
   <si>
     <t>SaleID</t>
   </si>
@@ -193,13 +210,13 @@
     <t>Average Sale per Customer</t>
   </si>
   <si>
-    <t>Monthly Sales</t>
+    <t>Top 5 Products</t>
   </si>
   <si>
-    <t>Revenue</t>
+    <t>Sum of Revenue</t>
   </si>
   <si>
-    <t>Top 5 Products</t>
+    <t>Sum of Total Sales</t>
   </si>
 </sst>
 </file>
@@ -306,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -324,6 +341,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1908,7 +1927,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2322,6 +2341,935 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Sales_Analytics_Dashboard_Data.xlsx]Dashboard!PivotTable1</c:name>
+    <c:fmtId val="4"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Monthly sales trends</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38676485996279336"/>
+          <c:y val="1.5511163073301497E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11081692913385827"/>
+          <c:y val="0.21149584845309538"/>
+          <c:w val="0.5945029759895194"/>
+          <c:h val="0.65609565535440795"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$A$8:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2023-08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2023-09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023-10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$8:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>\₹#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-049A-44CA-9B42-93B9E8D058C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="447106080"/>
+        <c:axId val="447125760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="447106080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447125760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="447125760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="\₹#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447106080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Sales_Analytics_Dashboard_Data.xlsx]Dashboard!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>tOTAL SALES</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25637566421744856"/>
+          <c:y val="3.4130936066175448E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17938971579294841"/>
+          <c:y val="0.2210836740559888"/>
+          <c:w val="0.50906989563053318"/>
+          <c:h val="0.68873167911042843"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$S$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$R$21:$R$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Bag</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jeans</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Shoes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T-Shirt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Watch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$S$21:$S$26</c:f>
+              <c:numCache>
+                <c:formatCode>\₹#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-263D-4E0D-936B-093BD79F0A3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="447073920"/>
+        <c:axId val="447080160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="447073920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447080160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="447080160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="\₹#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447073920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2482,6 +3430,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
   <cs:axisTitle>
@@ -4604,6 +5632,1027 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4767,6 +6816,234 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390769</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>117231</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{799FF763-48C6-CBAF-FA36-2FF3BD2B6E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>50213</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>61936</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136769</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Month">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F5420C-CCA2-0270-C19D-D2046E19D5C7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Month"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17576213" y="567643"/>
+              <a:ext cx="1816460" cy="1073073"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>97195</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>59262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>381827</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>87592</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B899305F-FDBF-D10A-125C-FF5F54894AF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>259543</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>278593</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>58389</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Product">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF20B254-6C8A-736C-304A-4009CB590339}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Product"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17183964" y="3389137"/>
+              <a:ext cx="1823787" cy="1602199"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4824,6 +7101,58 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
       <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Cassius Colaco" refreshedDate="45818.83214849537" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="3" xr:uid="{D3052CCD-DBB2-4F39-A343-2C3E60740D35}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A8:B11" sheet="Dashboard"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems count="3">
+        <s v="2023-08"/>
+        <s v="2023-09"/>
+        <s v="2023-10"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Revenue" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2100" maxValue="3900"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1240745386"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Cassius Colaco" refreshedDate="45819.649512037038" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="5" xr:uid="{F4D5B66F-BF7F-4B45-A7DE-F0755F234C6E}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="D10:E15" sheet="Dashboard"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Product" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Bag"/>
+        <s v="Jeans"/>
+        <s v="Shoes"/>
+        <s v="T-Shirt"/>
+        <s v="Watch"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Total Sales" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="950" maxValue="3150"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1251029234"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -4918,6 +7247,48 @@
     <x v="0"/>
     <n v="45"/>
     <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="3">
+  <r>
+    <x v="0"/>
+    <n v="2850"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="3900"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2100"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
+  <r>
+    <x v="0"/>
+    <n v="950"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="3150"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1200"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1350"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1800"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -5122,6 +7493,177 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8264DD1B-A086-4AC5-B040-863EC164A8CD}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="R20:S26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Sales" fld="1" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1EFA7F83-BC2B-4866-A321-F4BC00BB9F54}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Month">
+  <location ref="A7:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Revenue" fld="1" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Month" xr10:uid="{68FFA8D3-97D5-462E-83BF-155AF8DBE290}" sourceName="Month">
+  <pivotTables>
+    <pivotTable tabId="7" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1240745386">
+      <items count="3">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Product" xr10:uid="{96C8EF8D-FA8F-43EB-A619-655729D60D51}" sourceName="Product">
+  <pivotTables>
+    <pivotTable tabId="7" name="PivotTable2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1251029234">
+      <items count="5">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Month" xr10:uid="{747C7D9B-1689-483D-8AD0-68D41AE406AA}" cache="Slicer_Month" caption="Month" rowHeight="234950"/>
+  <slicer name="Product" xr10:uid="{670226AE-5718-42A0-A267-E51B5DCA14F5}" cache="Slicer_Product" caption="Product" rowHeight="234950"/>
+</slicers>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -6044,28 +8586,31 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6663447-05EF-4F08-A0EF-AD3CDE0F87EA}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="38" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="W54" sqref="W54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:13" ht="33.6" x14ac:dyDescent="0.65">
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
@@ -6076,7 +8621,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>51</v>
       </c>
@@ -6090,7 +8635,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>53</v>
       </c>
@@ -6104,7 +8649,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>36</v>
       </c>
@@ -6112,9 +8657,12 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>54</v>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
       </c>
       <c r="D7" t="s">
         <v>35</v>
@@ -6123,31 +8671,31 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>55</v>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2850</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="8">
-        <v>2850</v>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="12">
+        <v>3900</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="8">
-        <v>3900</v>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="12">
+        <v>2100</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>2</v>
@@ -6156,12 +8704,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="8">
-        <v>2100</v>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="12">
+        <v>8850</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -6170,7 +8718,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>25</v>
       </c>
@@ -6178,7 +8726,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>23</v>
       </c>
@@ -6186,7 +8734,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>24</v>
       </c>
@@ -6194,16 +8742,79 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="8">
         <v>1800</v>
+      </c>
+    </row>
+    <row r="20" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="S20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21" s="12">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="22" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S22" s="12">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="23" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" s="12">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="12">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="25" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S25" s="12">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="26" spans="18:19" x14ac:dyDescent="0.3">
+      <c r="R26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S26" s="12">
+        <v>8450</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>